--- a/public/sample_uploads/fund_unit_setting_update.xlsx
+++ b/public/sample_uploads/fund_unit_setting_update.xlsx
@@ -167,16 +167,37 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">-Mandatory
+-Incase of 'yes', all data mentioned in the sheet including blank fields will override the exisitng data on the platform</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Author:
 </t>
@@ -198,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t xml:space="preserve">Fund*</t>
   </si>
@@ -218,6 +239,9 @@
     <t xml:space="preserve">Update Only</t>
   </si>
   <si>
+    <t xml:space="preserve">Gp Units</t>
+  </si>
+  <si>
     <t xml:space="preserve">Isin</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
   </si>
   <si>
     <t xml:space="preserve">Series B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
@@ -340,7 +367,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -395,14 +422,6 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -475,32 +494,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -753,9 +776,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -766,11 +789,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -789,16 +812,16 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -813,7 +836,7 @@
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="5" t="s">
@@ -851,14 +874,17 @@
       </c>
       <c r="AA1" s="5" t="s">
         <v>26</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>2</v>
@@ -870,12 +896,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="6"/>
       <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
@@ -891,32 +917,32 @@
       <c r="M2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>30</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>25</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>25</v>
       </c>
       <c r="Q2" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="R2" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="S2" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="U2" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="V2" s="1" t="n">
         <v>30</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>37</v>
@@ -925,21 +951,24 @@
         <v>38</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>1</v>
@@ -951,53 +980,53 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="0"/>
-      <c r="H3" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="6"/>
       <c r="I3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="6" t="n">
+      <c r="N3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="O3" s="6" t="n">
+      <c r="P3" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="Q3" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="R3" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="R3" s="1" t="n">
+      <c r="S3" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="T3" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="T3" s="1" t="n">
+      <c r="U3" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="U3" s="1" t="n">
+      <c r="V3" s="1" t="n">
         <v>30</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>37</v>
@@ -1006,18 +1035,21 @@
         <v>38</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:F1003" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:G1003" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
